--- a/Attendence Tracker.xlsx
+++ b/Attendence Tracker.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennyduong/Desktop/Coding Temple Assignments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennyduong/Code/coding-temple-assignments/ct-excel-assignment-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{200AD98F-2E77-694E-8871-5A4A10CDF2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD86D7BE-A809-FD4E-ACA0-7F2E61D8D08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{AC94DCA0-AD51-FC4C-B4CA-01A79968111B}"/>
+    <workbookView xWindow="40" yWindow="-22980" windowWidth="28040" windowHeight="16400" xr2:uid="{AC94DCA0-AD51-FC4C-B4CA-01A79968111B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t xml:space="preserve">Fist Name </t>
   </si>
@@ -176,13 +176,19 @@
   </si>
   <si>
     <t>Julio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attendence </t>
+  </si>
+  <si>
+    <t>Total Days</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -204,16 +210,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -433,11 +452,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -450,10 +469,32 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -462,8 +503,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -475,31 +518,73 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -520,28 +605,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,81 +620,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -639,14 +718,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -688,14 +760,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -716,26 +781,31 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDAB9F9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1047,7 +1117,10 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1055,17 +1128,22 @@
     <col min="1" max="2" width="12.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="2" customWidth="1"/>
     <col min="4" max="23" width="10.83203125" style="2"/>
+    <col min="25" max="25" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
     </row>
-    <row r="2" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1080,7 +1158,7 @@
       <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -1095,7 +1173,7 @@
       <c r="L2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="6" t="s">
@@ -1107,10 +1185,10 @@
       <c r="P2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="S2" s="6" t="s">
@@ -1125,88 +1203,97 @@
       <c r="V2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="37" t="s">
         <v>4</v>
+      </c>
+      <c r="Y2" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="40" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
         <v>44928</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="9">
         <v>44929</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="9">
         <v>44930</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="9">
         <v>44931</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="13">
         <v>44932</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="11">
         <v>44935</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="9">
         <v>44936</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="9">
         <v>44937</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="9">
         <v>44938</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="13">
         <v>44939</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="11">
         <v>44942</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="9">
         <v>44943</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="9">
         <v>44944</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="9">
         <v>44945</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="15">
         <v>44946</v>
       </c>
-      <c r="R3" s="32">
+      <c r="R3" s="17">
         <v>44949</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="9">
         <v>44950</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="9">
         <v>44951</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="9">
         <v>44952</v>
       </c>
-      <c r="V3" s="23">
+      <c r="V3" s="13">
         <v>44953</v>
       </c>
-      <c r="W3" s="19">
+      <c r="W3" s="31">
         <v>44956</v>
       </c>
-      <c r="X3" s="17">
+      <c r="X3" s="38">
         <v>44957</v>
       </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+      <c r="Y3" s="36">
+        <f>COUNT(C3:X3)</f>
+        <v>22</v>
+      </c>
+      <c r="Z3" s="35"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -1215,627 +1302,1674 @@
       <c r="AF3" s="1"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="15"/>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1</v>
+      </c>
+      <c r="L4" s="12">
+        <v>1</v>
+      </c>
+      <c r="M4" s="12">
+        <v>1</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>1</v>
+      </c>
+      <c r="R4" s="12">
+        <v>1</v>
+      </c>
+      <c r="S4" s="12">
+        <v>0</v>
+      </c>
+      <c r="T4" s="12">
+        <v>1</v>
+      </c>
+      <c r="U4" s="12">
+        <v>1</v>
+      </c>
+      <c r="V4" s="12">
+        <v>1</v>
+      </c>
+      <c r="W4" s="12">
+        <v>1</v>
+      </c>
+      <c r="X4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="27">
+        <f>SUM(C4:X4)</f>
+        <v>19</v>
+      </c>
+      <c r="Z4" s="30">
+        <f>Y4/$Y$3</f>
+        <v>0.86363636363636365</v>
+      </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="9"/>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1</v>
+      </c>
+      <c r="K5" s="12">
+        <v>1</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1</v>
+      </c>
+      <c r="M5" s="12">
+        <v>1</v>
+      </c>
+      <c r="N5" s="12">
+        <v>1</v>
+      </c>
+      <c r="O5" s="12">
+        <v>1</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>1</v>
+      </c>
+      <c r="R5" s="12">
+        <v>1</v>
+      </c>
+      <c r="S5" s="12">
+        <v>1</v>
+      </c>
+      <c r="T5" s="12">
+        <v>1</v>
+      </c>
+      <c r="U5" s="12">
+        <v>1</v>
+      </c>
+      <c r="V5" s="12">
+        <v>1</v>
+      </c>
+      <c r="W5" s="12">
+        <v>1</v>
+      </c>
+      <c r="X5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="28">
+        <f t="shared" ref="Y5:Y23" si="0">SUM(C5:X5)</f>
+        <v>20</v>
+      </c>
+      <c r="Z5" s="29">
+        <f t="shared" ref="Z5:Z23" si="1">Y5/$Y$3</f>
+        <v>0.90909090909090906</v>
+      </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="9"/>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
+        <v>1</v>
+      </c>
+      <c r="N6" s="12">
+        <v>1</v>
+      </c>
+      <c r="O6" s="12">
+        <v>1</v>
+      </c>
+      <c r="P6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>1</v>
+      </c>
+      <c r="R6" s="12">
+        <v>1</v>
+      </c>
+      <c r="S6" s="12">
+        <v>1</v>
+      </c>
+      <c r="T6" s="12">
+        <v>1</v>
+      </c>
+      <c r="U6" s="12">
+        <v>1</v>
+      </c>
+      <c r="V6" s="12">
+        <v>1</v>
+      </c>
+      <c r="W6" s="12">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Z6" s="29">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
+      </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="9"/>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1</v>
+      </c>
+      <c r="M7" s="12">
+        <v>1</v>
+      </c>
+      <c r="N7" s="12">
+        <v>1</v>
+      </c>
+      <c r="O7" s="12">
+        <v>1</v>
+      </c>
+      <c r="P7" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>1</v>
+      </c>
+      <c r="R7" s="12">
+        <v>1</v>
+      </c>
+      <c r="S7" s="12">
+        <v>0</v>
+      </c>
+      <c r="T7" s="12">
+        <v>1</v>
+      </c>
+      <c r="U7" s="12">
+        <v>1</v>
+      </c>
+      <c r="V7" s="12">
+        <v>1</v>
+      </c>
+      <c r="W7" s="12">
+        <v>1</v>
+      </c>
+      <c r="X7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="28">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Z7" s="29">
+        <f t="shared" si="1"/>
+        <v>0.95454545454545459</v>
+      </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="9"/>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1</v>
+      </c>
+      <c r="K8" s="12">
+        <v>1</v>
+      </c>
+      <c r="L8" s="12">
+        <v>1</v>
+      </c>
+      <c r="M8" s="12">
+        <v>1</v>
+      </c>
+      <c r="N8" s="12">
+        <v>1</v>
+      </c>
+      <c r="O8" s="12">
+        <v>1</v>
+      </c>
+      <c r="P8" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>1</v>
+      </c>
+      <c r="R8" s="12">
+        <v>1</v>
+      </c>
+      <c r="S8" s="12">
+        <v>1</v>
+      </c>
+      <c r="T8" s="12">
+        <v>0</v>
+      </c>
+      <c r="U8" s="12">
+        <v>0</v>
+      </c>
+      <c r="V8" s="12">
+        <v>1</v>
+      </c>
+      <c r="W8" s="12">
+        <v>1</v>
+      </c>
+      <c r="X8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Z8" s="29">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
+      </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="9"/>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1</v>
+      </c>
+      <c r="M9" s="12">
+        <v>1</v>
+      </c>
+      <c r="N9" s="12">
+        <v>1</v>
+      </c>
+      <c r="O9" s="12">
+        <v>1</v>
+      </c>
+      <c r="P9" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>1</v>
+      </c>
+      <c r="R9" s="12">
+        <v>1</v>
+      </c>
+      <c r="S9" s="12">
+        <v>1</v>
+      </c>
+      <c r="T9" s="12">
+        <v>1</v>
+      </c>
+      <c r="U9" s="12">
+        <v>1</v>
+      </c>
+      <c r="V9" s="12">
+        <v>1</v>
+      </c>
+      <c r="W9" s="12">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="28">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Z9" s="29">
+        <f t="shared" si="1"/>
+        <v>0.95454545454545459</v>
+      </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="9"/>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1</v>
+      </c>
+      <c r="L10" s="12">
+        <v>1</v>
+      </c>
+      <c r="M10" s="12">
+        <v>1</v>
+      </c>
+      <c r="N10" s="12">
+        <v>1</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>1</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
+        <v>1</v>
+      </c>
+      <c r="T10" s="12">
+        <v>0</v>
+      </c>
+      <c r="U10" s="12">
+        <v>1</v>
+      </c>
+      <c r="V10" s="12">
+        <v>1</v>
+      </c>
+      <c r="W10" s="12">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="28">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Z10" s="29">
+        <f t="shared" si="1"/>
+        <v>0.68181818181818177</v>
+      </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="9"/>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12">
+        <v>1</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1</v>
+      </c>
+      <c r="L11" s="12">
+        <v>1</v>
+      </c>
+      <c r="M11" s="12">
+        <v>1</v>
+      </c>
+      <c r="N11" s="12">
+        <v>1</v>
+      </c>
+      <c r="O11" s="12">
+        <v>1</v>
+      </c>
+      <c r="P11" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>1</v>
+      </c>
+      <c r="R11" s="12">
+        <v>0</v>
+      </c>
+      <c r="S11" s="12">
+        <v>1</v>
+      </c>
+      <c r="T11" s="12">
+        <v>1</v>
+      </c>
+      <c r="U11" s="12">
+        <v>1</v>
+      </c>
+      <c r="V11" s="12">
+        <v>1</v>
+      </c>
+      <c r="W11" s="12">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="28">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Z11" s="29">
+        <f t="shared" si="1"/>
+        <v>0.86363636363636365</v>
+      </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="9"/>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>1</v>
+      </c>
+      <c r="R12" s="12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="12">
+        <v>1</v>
+      </c>
+      <c r="T12" s="12">
+        <v>1</v>
+      </c>
+      <c r="U12" s="12">
+        <v>1</v>
+      </c>
+      <c r="V12" s="12">
+        <v>1</v>
+      </c>
+      <c r="W12" s="12">
+        <v>1</v>
+      </c>
+      <c r="X12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Z12" s="29">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
+      </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="9"/>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1</v>
+      </c>
+      <c r="L13" s="12">
+        <v>1</v>
+      </c>
+      <c r="M13" s="12">
+        <v>1</v>
+      </c>
+      <c r="N13" s="12">
+        <v>1</v>
+      </c>
+      <c r="O13" s="12">
+        <v>1</v>
+      </c>
+      <c r="P13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>1</v>
+      </c>
+      <c r="R13" s="12">
+        <v>1</v>
+      </c>
+      <c r="S13" s="12">
+        <v>1</v>
+      </c>
+      <c r="T13" s="12">
+        <v>1</v>
+      </c>
+      <c r="U13" s="12">
+        <v>1</v>
+      </c>
+      <c r="V13" s="12">
+        <v>1</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Z13" s="29">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
+      </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="9"/>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1</v>
+      </c>
+      <c r="N14" s="12">
+        <v>1</v>
+      </c>
+      <c r="O14" s="12">
+        <v>1</v>
+      </c>
+      <c r="P14" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>1</v>
+      </c>
+      <c r="R14" s="12">
+        <v>1</v>
+      </c>
+      <c r="S14" s="12">
+        <v>1</v>
+      </c>
+      <c r="T14" s="12">
+        <v>1</v>
+      </c>
+      <c r="U14" s="12">
+        <v>1</v>
+      </c>
+      <c r="V14" s="12">
+        <v>0</v>
+      </c>
+      <c r="W14" s="12">
+        <v>1</v>
+      </c>
+      <c r="X14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="28">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Z14" s="29">
+        <f t="shared" si="1"/>
+        <v>0.86363636363636365</v>
+      </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="9"/>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <v>1</v>
+      </c>
+      <c r="L15" s="12">
+        <v>1</v>
+      </c>
+      <c r="M15" s="12">
+        <v>1</v>
+      </c>
+      <c r="N15" s="12">
+        <v>1</v>
+      </c>
+      <c r="O15" s="12">
+        <v>1</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>1</v>
+      </c>
+      <c r="R15" s="12">
+        <v>1</v>
+      </c>
+      <c r="S15" s="12">
+        <v>1</v>
+      </c>
+      <c r="T15" s="12">
+        <v>1</v>
+      </c>
+      <c r="U15" s="12">
+        <v>1</v>
+      </c>
+      <c r="V15" s="12">
+        <v>1</v>
+      </c>
+      <c r="W15" s="12">
+        <v>1</v>
+      </c>
+      <c r="X15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Z15" s="29">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
+      </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="9"/>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+      <c r="K16" s="12">
+        <v>1</v>
+      </c>
+      <c r="L16" s="12">
+        <v>1</v>
+      </c>
+      <c r="M16" s="12">
+        <v>1</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0</v>
+      </c>
+      <c r="O16" s="12">
+        <v>1</v>
+      </c>
+      <c r="P16" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>1</v>
+      </c>
+      <c r="R16" s="12">
+        <v>1</v>
+      </c>
+      <c r="S16" s="12">
+        <v>1</v>
+      </c>
+      <c r="T16" s="12">
+        <v>1</v>
+      </c>
+      <c r="U16" s="12">
+        <v>1</v>
+      </c>
+      <c r="V16" s="12">
+        <v>1</v>
+      </c>
+      <c r="W16" s="12">
+        <v>1</v>
+      </c>
+      <c r="X16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="28">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Z16" s="29">
+        <f t="shared" si="1"/>
+        <v>0.86363636363636365</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="9"/>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
+      <c r="I17" s="12">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>1</v>
+      </c>
+      <c r="M17" s="12">
+        <v>1</v>
+      </c>
+      <c r="N17" s="12">
+        <v>1</v>
+      </c>
+      <c r="O17" s="12">
+        <v>1</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>1</v>
+      </c>
+      <c r="R17" s="12">
+        <v>1</v>
+      </c>
+      <c r="S17" s="12">
+        <v>1</v>
+      </c>
+      <c r="T17" s="12">
+        <v>1</v>
+      </c>
+      <c r="U17" s="12">
+        <v>1</v>
+      </c>
+      <c r="V17" s="12">
+        <v>1</v>
+      </c>
+      <c r="W17" s="12">
+        <v>1</v>
+      </c>
+      <c r="X17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="28">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Z17" s="29">
+        <f t="shared" si="1"/>
+        <v>0.86363636363636365</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="9"/>
+      <c r="C18" s="12">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12">
+        <v>1</v>
+      </c>
+      <c r="K18" s="12">
+        <v>1</v>
+      </c>
+      <c r="L18" s="12">
+        <v>1</v>
+      </c>
+      <c r="M18" s="12">
+        <v>1</v>
+      </c>
+      <c r="N18" s="12">
+        <v>0</v>
+      </c>
+      <c r="O18" s="12">
+        <v>1</v>
+      </c>
+      <c r="P18" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>1</v>
+      </c>
+      <c r="R18" s="12">
+        <v>1</v>
+      </c>
+      <c r="S18" s="12">
+        <v>1</v>
+      </c>
+      <c r="T18" s="12">
+        <v>1</v>
+      </c>
+      <c r="U18" s="12">
+        <v>1</v>
+      </c>
+      <c r="V18" s="12">
+        <v>1</v>
+      </c>
+      <c r="W18" s="12">
+        <v>1</v>
+      </c>
+      <c r="X18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="28">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Z18" s="29">
+        <f t="shared" si="1"/>
+        <v>0.95454545454545459</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="9"/>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1</v>
+      </c>
+      <c r="J19" s="12">
+        <v>1</v>
+      </c>
+      <c r="K19" s="12">
+        <v>1</v>
+      </c>
+      <c r="L19" s="12">
+        <v>1</v>
+      </c>
+      <c r="M19" s="12">
+        <v>1</v>
+      </c>
+      <c r="N19" s="12">
+        <v>1</v>
+      </c>
+      <c r="O19" s="12">
+        <v>1</v>
+      </c>
+      <c r="P19" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>0</v>
+      </c>
+      <c r="R19" s="12">
+        <v>1</v>
+      </c>
+      <c r="S19" s="12">
+        <v>0</v>
+      </c>
+      <c r="T19" s="12">
+        <v>0</v>
+      </c>
+      <c r="U19" s="12">
+        <v>0</v>
+      </c>
+      <c r="V19" s="12">
+        <v>0</v>
+      </c>
+      <c r="W19" s="12">
+        <v>1</v>
+      </c>
+      <c r="X19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="28">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Z19" s="29">
+        <f t="shared" si="1"/>
+        <v>0.77272727272727271</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="9"/>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12">
+        <v>1</v>
+      </c>
+      <c r="J20" s="12">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12">
+        <v>1</v>
+      </c>
+      <c r="L20" s="12">
+        <v>1</v>
+      </c>
+      <c r="M20" s="12">
+        <v>1</v>
+      </c>
+      <c r="N20" s="12">
+        <v>1</v>
+      </c>
+      <c r="O20" s="12">
+        <v>1</v>
+      </c>
+      <c r="P20" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>1</v>
+      </c>
+      <c r="R20" s="12">
+        <v>1</v>
+      </c>
+      <c r="S20" s="12">
+        <v>1</v>
+      </c>
+      <c r="T20" s="12">
+        <v>1</v>
+      </c>
+      <c r="U20" s="12">
+        <v>1</v>
+      </c>
+      <c r="V20" s="12">
+        <v>1</v>
+      </c>
+      <c r="W20" s="12">
+        <v>1</v>
+      </c>
+      <c r="X20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="28">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Z20" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="39" t="s">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="9"/>
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1</v>
+      </c>
+      <c r="I21" s="12">
+        <v>1</v>
+      </c>
+      <c r="J21" s="12">
+        <v>1</v>
+      </c>
+      <c r="K21" s="12">
+        <v>1</v>
+      </c>
+      <c r="L21" s="12">
+        <v>1</v>
+      </c>
+      <c r="M21" s="12">
+        <v>1</v>
+      </c>
+      <c r="N21" s="12">
+        <v>1</v>
+      </c>
+      <c r="O21" s="12">
+        <v>1</v>
+      </c>
+      <c r="P21" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>1</v>
+      </c>
+      <c r="R21" s="12">
+        <v>1</v>
+      </c>
+      <c r="S21" s="12">
+        <v>1</v>
+      </c>
+      <c r="T21" s="12">
+        <v>1</v>
+      </c>
+      <c r="U21" s="12">
+        <v>1</v>
+      </c>
+      <c r="V21" s="12">
+        <v>1</v>
+      </c>
+      <c r="W21" s="12">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Z21" s="29">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="9"/>
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
+      <c r="I22" s="12">
+        <v>1</v>
+      </c>
+      <c r="J22" s="12">
+        <v>1</v>
+      </c>
+      <c r="K22" s="12">
+        <v>1</v>
+      </c>
+      <c r="L22" s="12">
+        <v>1</v>
+      </c>
+      <c r="M22" s="12">
+        <v>1</v>
+      </c>
+      <c r="N22" s="12">
+        <v>1</v>
+      </c>
+      <c r="O22" s="12">
+        <v>1</v>
+      </c>
+      <c r="P22" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>1</v>
+      </c>
+      <c r="R22" s="12">
+        <v>1</v>
+      </c>
+      <c r="S22" s="12">
+        <v>1</v>
+      </c>
+      <c r="T22" s="12">
+        <v>1</v>
+      </c>
+      <c r="U22" s="12">
+        <v>1</v>
+      </c>
+      <c r="V22" s="12">
+        <v>1</v>
+      </c>
+      <c r="W22" s="12">
+        <v>1</v>
+      </c>
+      <c r="X22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="28">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Z22" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+    <row r="23" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="12"/>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
+      <c r="I23" s="12">
+        <v>1</v>
+      </c>
+      <c r="J23" s="12">
+        <v>1</v>
+      </c>
+      <c r="K23" s="12">
+        <v>1</v>
+      </c>
+      <c r="L23" s="12">
+        <v>1</v>
+      </c>
+      <c r="M23" s="12">
+        <v>1</v>
+      </c>
+      <c r="N23" s="12">
+        <v>1</v>
+      </c>
+      <c r="O23" s="12">
+        <v>1</v>
+      </c>
+      <c r="P23" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>1</v>
+      </c>
+      <c r="R23" s="12">
+        <v>1</v>
+      </c>
+      <c r="S23" s="12">
+        <v>1</v>
+      </c>
+      <c r="T23" s="12">
+        <v>1</v>
+      </c>
+      <c r="U23" s="12">
+        <v>1</v>
+      </c>
+      <c r="V23" s="12">
+        <v>1</v>
+      </c>
+      <c r="W23" s="12">
+        <v>1</v>
+      </c>
+      <c r="X23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="28">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Z23" s="29">
+        <f t="shared" si="1"/>
+        <v>0.95454545454545459</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+  <conditionalFormatting sqref="A2:XFD2">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"Friday"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"Thursday"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Wednesday">
+      <formula>NOT(ISERROR(SEARCH("Wednesday",A2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"Tuesday"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Monday"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:XFD2">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"Monday"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>"Tuesday"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Wednesday">
-      <formula>NOT(ISERROR(SEARCH("Wednesday",A2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
-      <formula>"Thursday"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"Friday"</formula>
+  <conditionalFormatting sqref="Z4:Z23">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
